--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2969,17 +2969,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.29296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2988,27 +2988,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="74.07421875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.3359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="77.02734375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="54.6015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2969,17 +2969,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.17578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2988,27 +2988,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.3359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="77.02734375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="74.07421875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1007,6 +1007,9 @@
     <t>Patient.identifier:identificacionPrincipal.type</t>
   </si>
   <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSTipoIdentificador</t>
+  </si>
+  <si>
     <t>Patient.identifier:identificacionPrincipal.type.id</t>
   </si>
   <si>
@@ -1032,9 +1035,6 @@
   </si>
   <si>
     <t>Patient.identifier:identificacionPrincipal.type.coding.code</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSTipoIdentificador</t>
   </si>
   <si>
     <t>Patient.identifier:identificacionPrincipal.type.coding.display</t>
@@ -8117,11 +8117,9 @@
       <c r="X44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -8171,7 +8169,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>216</v>
@@ -8286,7 +8284,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>217</v>
@@ -8401,7 +8399,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>217</v>
@@ -8518,7 +8516,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>222</v>
@@ -8637,7 +8635,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>231</v>
@@ -8752,7 +8750,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>232</v>
@@ -8869,7 +8867,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>235</v>
@@ -8988,7 +8986,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>243</v>
@@ -9105,7 +9103,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>250</v>
@@ -9166,11 +9164,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -10059,7 +10059,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>87</v>
@@ -10695,11 +10695,9 @@
       <c r="X66" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -11744,11 +11742,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-PatientLE.xlsx
+++ b/docs/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
